--- a/Assets/StreamingAssets/UnitModel.xlsx
+++ b/Assets/StreamingAssets/UnitModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A0651-D865-4010-9B4A-6E3E55EAA196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78A4B8B-4838-41BF-84F7-0286B8846137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13272" yWindow="2724" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="852" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,34 @@
   </si>
   <si>
     <t>UnitModel/Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/弓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/枪手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/散弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,13 +389,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -385,8 +417,65 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/UnitModel.xlsx
+++ b/Assets/StreamingAssets/UnitModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectsDatabase\Unity Projects\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Royale\ClashRoyale-like_demo\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78A4B8B-4838-41BF-84F7-0286B8846137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4AE8C-ABF0-4607-BA34-DF9261311271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="852" windowWidth="26016" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitModel/弓手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitModel/枪手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +60,10 @@
   </si>
   <si>
     <t>UnitModel/散弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitModel/弓箭手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,19 +389,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -417,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -425,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -433,7 +434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -441,36 +442,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
